--- a/medicine/Mort/Cimetière_national_de_Chattanooga/Cimetière_national_de_Chattanooga.xlsx
+++ b/medicine/Mort/Cimetière_national_de_Chattanooga/Cimetière_national_de_Chattanooga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Chattanooga</t>
+          <t>Cimetière_national_de_Chattanooga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de Chattanooga est un cimetière national des États-Unis situé près du centre de la ville de Chattanooga, dans le comté de Hamilton, au Tennessee. Administré par le département  des États-Unis des affaires des anciens combattants, il s'étend sur 120,9 acres (48,9 ha), et à partir de 2014, comptait plus de 50 000 inhumations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Chattanooga</t>
+          <t>Cimetière_national_de_Chattanooga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>L'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est créé en 1863, sur l'ordre du major général George Henry Thomas après les batailles de Chattanooga de la guerre de Sécession, comme lieu de l'inhumation des soldats uninistes tombés au combat. 75 acres (30,4 ha) de terrain sont initialement préemptés à deux propriétaires fonciers locaux, mais plus tard achetés. Il devient le cimetière national de Chattanooga en 1867. En 1870, plus de 12 000 inhumations ont été faites, dont la plupart sont inconnues. Les sépultures à proximité de nombreux champs de bataille sont également ré-inhumées à Chattanooga, dont près de 1 500 sépultures de la bataille de Chickamauga.
 Au cours de la première guerre mondiale, plusieurs prisonniers de guerre allemands décédés en captivité sont enterrés dans le cimetière national de Chattanooga. Après la guerre, le gouvernement allemand a payé pour avoir d'autres prisonniers de guerre exhumés du cimetière national de Hot Springs et déplacés vers Chattanooga.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Chattanooga</t>
+          <t>Cimetière_national_de_Chattanooga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Monuments notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une arche commémorative de 40' de hauteur, construite en 1868.
-Mémorial des raiders d'Andrews, érigé en 1890[1]. Il comprend une réplique en bronze de la locomotive connue comme The General, volée par les partisans de l'Union  de James J. Andrews et ses hommes durant son raid.
+Mémorial des raiders d'Andrews, érigé en 1890. Il comprend une réplique en bronze de la locomotive connue comme The General, volée par les partisans de l'Union  de James J. Andrews et ses hommes durant son raid.
 Monument des prisonniers de guerre allemands de la Première Guerre mondiale, érigé par le gouvernement allemand en 1935.</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Chattanooga</t>
+          <t>Cimetière_national_de_Chattanooga</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,19 +593,21 @@
           <t>Inhumations notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Andrews Raiders
 Récipiendaire de la médaille d'honneur
-Soldat Samuel Robertson[2]
-Sergent-Major Marion A. Ross[3]
-Sergent John M. Scott[4]
-Soldat Samuel Slavens[5]
+Soldat Samuel Robertson
+Sergent-Major Marion A. Ross
+Sergent John M. Scott
+Soldat Samuel Slavens
 Autres Raiders
 James J. Andrews, leader du raid (civil)
 William H. Campbell, membre civil
-Soldat Philip G. Shadrack[6]
-Soldat George D. Wilson[7]
+Soldat Philip G. Shadrack
+Soldat George D. Wilson
 Récipiendaires de la médaille d'honneur
 Maître sergent Ray E. Duc, pour l'action lors de la guerre de Corée. Aussi, récipiendaire de la  version de la médaille d'honneur de la république de Corée (la médaille du mérite Taegug)
 Caporal Desmond Doss, pour l'action lors de la seconde guerre mondiale, le premier objecteur de conscience récipiendaire de la médaille d'honneur.
@@ -601,7 +619,7 @@
 Sammy Strang, joueur de la ligue majeure de baseball et entraîeneur de l'académie militaire de West Point.
 Autres inhumations remarquables
 186 prisonniers de guerre étrangers de la première guerre mondiale et de la seconde guerre mondiale.
-Un soldat Canadien de la première guerre mondiale[8]</t>
+Un soldat Canadien de la première guerre mondiale</t>
         </is>
       </c>
     </row>
